--- a/va_facility_data_2025-02-20/Seattle VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Seattle%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Seattle VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Seattle%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rc0b47c374f2842b48be802b028ada991"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R5163e5ee9ca74f7799cd4fda9a435f50"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R2af8ac771201443fab1667596b8cfe60"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R279c4d34076c41d7ab5fe820ab61618a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R02a4899105dc4de9b7e31b1381ce54c2"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="R7e5b270b57fc4abd8c3943856e9dae98"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Ra14c2ee4b5144aaeb3faa7706452ab3f"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="Rffc224bdb9bf49b4aa427c6e8bda10f5"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R55900fa476eb4aa9a93a647cfdedca09"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="Rc08f040d31574d499e6c9e03defb7687"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rdd21d44f9ff9410bb03a972a213c3d81"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R14c832f5d14b4f22a1165d5117251ced"/>
   </x:sheets>
 </x:workbook>
 </file>
